--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema3g-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema3g-Nrp2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>3.949943</v>
+        <v>9.684777666666667</v>
       </c>
       <c r="H2">
-        <v>11.849829</v>
+        <v>29.054333</v>
       </c>
       <c r="I2">
-        <v>0.7136716036992452</v>
+        <v>0.8593785179720864</v>
       </c>
       <c r="J2">
-        <v>0.7136716036992451</v>
+        <v>0.8593785179720863</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.83081766666666</v>
+        <v>25.37147633333333</v>
       </c>
       <c r="N2">
-        <v>80.492453</v>
+        <v>76.114429</v>
       </c>
       <c r="O2">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="P2">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="Q2">
-        <v>105.9802004267263</v>
+        <v>245.7171073634286</v>
       </c>
       <c r="R2">
-        <v>953.821803840537</v>
+        <v>2211.453966270857</v>
       </c>
       <c r="S2">
-        <v>0.4222549990529236</v>
+        <v>0.4967965344003997</v>
       </c>
       <c r="T2">
-        <v>0.4222549990529235</v>
+        <v>0.4967965344003996</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>3.949943</v>
+        <v>9.684777666666667</v>
       </c>
       <c r="H3">
-        <v>11.849829</v>
+        <v>29.054333</v>
       </c>
       <c r="I3">
-        <v>0.7136716036992452</v>
+        <v>0.8593785179720864</v>
       </c>
       <c r="J3">
-        <v>0.7136716036992451</v>
+        <v>0.8593785179720863</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>30.659075</v>
       </c>
       <c r="O3">
-        <v>0.2253617819930475</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="P3">
-        <v>0.2253617819930474</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="Q3">
-        <v>40.36719956090833</v>
+        <v>98.97544161355279</v>
       </c>
       <c r="R3">
-        <v>363.304796048175</v>
+        <v>890.778974521975</v>
       </c>
       <c r="S3">
-        <v>0.1608343043674978</v>
+        <v>0.2001108384840138</v>
       </c>
       <c r="T3">
-        <v>0.1608343043674978</v>
+        <v>0.2001108384840138</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3.949943</v>
+        <v>9.684777666666667</v>
       </c>
       <c r="H4">
-        <v>11.849829</v>
+        <v>29.054333</v>
       </c>
       <c r="I4">
-        <v>0.7136716036992452</v>
+        <v>0.8593785179720864</v>
       </c>
       <c r="J4">
-        <v>0.7136716036992451</v>
+        <v>0.8593785179720863</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>24.89228</v>
       </c>
       <c r="O4">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="P4">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="Q4">
-        <v>32.77436238001333</v>
+        <v>80.35873247213777</v>
       </c>
       <c r="R4">
-        <v>294.96926142012</v>
+        <v>723.22859224924</v>
       </c>
       <c r="S4">
-        <v>0.1305823002788238</v>
+        <v>0.1624711450876729</v>
       </c>
       <c r="T4">
-        <v>0.1305823002788237</v>
+        <v>0.1624711450876729</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.877025</v>
       </c>
       <c r="I5">
-        <v>0.1130463099453651</v>
+        <v>0.05551925637723486</v>
       </c>
       <c r="J5">
-        <v>0.1130463099453651</v>
+        <v>0.05551925637723486</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.83081766666666</v>
+        <v>25.37147633333333</v>
       </c>
       <c r="N5">
-        <v>80.492453</v>
+        <v>76.114429</v>
       </c>
       <c r="O5">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="P5">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="Q5">
-        <v>16.78737184359166</v>
+        <v>15.87429845485833</v>
       </c>
       <c r="R5">
-        <v>151.086346592325</v>
+        <v>142.868686093725</v>
       </c>
       <c r="S5">
-        <v>0.06688562253491707</v>
+        <v>0.03209502400151159</v>
       </c>
       <c r="T5">
-        <v>0.06688562253491707</v>
+        <v>0.03209502400151159</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.877025</v>
       </c>
       <c r="I6">
-        <v>0.1130463099453651</v>
+        <v>0.05551925637723486</v>
       </c>
       <c r="J6">
-        <v>0.1130463099453651</v>
+        <v>0.05551925637723486</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>30.659075</v>
       </c>
       <c r="O6">
-        <v>0.2253617819930475</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="P6">
-        <v>0.2253617819930474</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="Q6">
         <v>6.394205583541667</v>
@@ -818,10 +818,10 @@
         <v>57.547850251875</v>
       </c>
       <c r="S6">
-        <v>0.02547631785702584</v>
+        <v>0.01292795283255878</v>
       </c>
       <c r="T6">
-        <v>0.02547631785702583</v>
+        <v>0.01292795283255878</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.877025</v>
       </c>
       <c r="I7">
-        <v>0.1130463099453651</v>
+        <v>0.05551925637723486</v>
       </c>
       <c r="J7">
-        <v>0.1130463099453651</v>
+        <v>0.05551925637723486</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>24.89228</v>
       </c>
       <c r="O7">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="P7">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="Q7">
         <v>5.191492429666666</v>
@@ -880,10 +880,10 @@
         <v>46.723431867</v>
       </c>
       <c r="S7">
-        <v>0.02068436955342218</v>
+        <v>0.0104962795431645</v>
       </c>
       <c r="T7">
-        <v>0.02068436955342217</v>
+        <v>0.0104962795431645</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>2.877182</v>
       </c>
       <c r="I8">
-        <v>0.1732820863553897</v>
+        <v>0.08510222565067881</v>
       </c>
       <c r="J8">
-        <v>0.1732820863553897</v>
+        <v>0.08510222565067879</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.83081766666666</v>
+        <v>25.37147633333333</v>
       </c>
       <c r="N8">
-        <v>80.492453</v>
+        <v>76.114429</v>
       </c>
       <c r="O8">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="P8">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="Q8">
-        <v>25.73238187860511</v>
+        <v>24.33278500656422</v>
       </c>
       <c r="R8">
-        <v>231.591436907446</v>
+        <v>218.995065059078</v>
       </c>
       <c r="S8">
-        <v>0.1025250645123308</v>
+        <v>0.04919658787001618</v>
       </c>
       <c r="T8">
-        <v>0.1025250645123308</v>
+        <v>0.04919658787001617</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>2.877182</v>
       </c>
       <c r="I9">
-        <v>0.1732820863553897</v>
+        <v>0.08510222565067881</v>
       </c>
       <c r="J9">
-        <v>0.1732820863553897</v>
+        <v>0.08510222565067879</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>30.659075</v>
       </c>
       <c r="O9">
-        <v>0.2253617819930475</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="P9">
-        <v>0.2253617819930474</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="Q9">
         <v>9.801304302961112</v>
@@ -1004,10 +1004,10 @@
         <v>88.21173872665</v>
       </c>
       <c r="S9">
-        <v>0.03905115976852377</v>
+        <v>0.01981650387538106</v>
       </c>
       <c r="T9">
-        <v>0.03905115976852375</v>
+        <v>0.01981650387538106</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>2.877182</v>
       </c>
       <c r="I10">
-        <v>0.1732820863553897</v>
+        <v>0.08510222565067881</v>
       </c>
       <c r="J10">
-        <v>0.1732820863553897</v>
+        <v>0.08510222565067879</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>24.89228</v>
       </c>
       <c r="O10">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="P10">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="Q10">
         <v>7.957735550551111</v>
@@ -1066,10 +1066,10 @@
         <v>71.61961995496</v>
       </c>
       <c r="S10">
-        <v>0.03170586207453514</v>
+        <v>0.01608913390528156</v>
       </c>
       <c r="T10">
-        <v>0.03170586207453514</v>
+        <v>0.01608913390528156</v>
       </c>
     </row>
   </sheetData>
